--- a/Sample Data/Mentor Application2026.xlsx
+++ b/Sample Data/Mentor Application2026.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IreneFerrigno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MewsMentor\Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D955708C-ABC8-4BDB-8B2C-DF80CA04B649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E444E58-499F-402A-9FB1-07C8D0B9717D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HrdOjmEg" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="342">
   <si>
     <t>#</t>
   </si>
@@ -1056,6 +1056,12 @@
   </si>
   <si>
     <t>a79886a036</t>
+  </si>
+  <si>
+    <t>Role Type</t>
+  </si>
+  <si>
+    <t>Mentor</t>
   </si>
 </sst>
 </file>
@@ -1430,203 +1436,260 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BC30"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="55" width="9.5" style="1"/>
+    <col min="1" max="1" width="34" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="141" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="41.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="35.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="100.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="41.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.5" style="1"/>
+    <col min="36" max="36" width="8.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="38.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="162.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="46.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="255.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="136.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>15</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AT1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AV1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AW1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AX1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AY1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BA1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BB1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BC1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BD1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G2" s="1" t="s">
         <v>59</v>
       </c>
@@ -1637,330 +1700,336 @@
         <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB2" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM2" s="1" t="s">
+      <c r="AN2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AT2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AV2" s="1" t="s">
+      <c r="AW2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="AX2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX2" s="1" t="s">
+      <c r="AY2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AY2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BA2" s="1" t="s">
+      <c r="BB2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BB2" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="X3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AK3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP3" s="1" t="s">
+      <c r="AQ3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ3" s="1" t="s">
+      <c r="AR3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS3" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AT3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU3" s="1" t="s">
+      <c r="AV3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="AV3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AW3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX3" s="1" t="s">
+      <c r="AY3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AY3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="BA3" s="1" t="s">
+      <c r="BB3" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="BB3" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD3" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1968,53 +2037,53 @@
         <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Y4" s="1" t="s">
         <v>59</v>
       </c>
@@ -2028,35 +2097,35 @@
         <v>59</v>
       </c>
       <c r="AC4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM4" s="1" t="s">
         <v>59</v>
       </c>
@@ -2064,85 +2133,88 @@
         <v>59</v>
       </c>
       <c r="AO4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP4" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR4" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AS4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AY4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BB4" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD4" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L5" s="1" t="s">
         <v>59</v>
       </c>
@@ -2150,11 +2222,11 @@
         <v>59</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P5" s="1" t="s">
         <v>59</v>
       </c>
@@ -2171,130 +2243,133 @@
         <v>59</v>
       </c>
       <c r="U5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="X5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Y5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD5" s="1" t="s">
+      <c r="AE5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AF5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AH5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK5" s="1" t="s">
+      <c r="AL5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP5" s="1" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AS5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT5" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AT5" s="1" t="s">
+      <c r="AU5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AU5" s="1" t="s">
+      <c r="AV5" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="AV5" s="1" t="s">
+      <c r="AW5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AW5" s="1" t="s">
+      <c r="AX5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX5" s="1" t="s">
+      <c r="AY5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AY5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BA5" s="1" t="s">
+      <c r="BB5" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BB5" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD5" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G6" s="1" t="s">
         <v>59</v>
       </c>
@@ -2308,17 +2383,17 @@
         <v>59</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="O6" s="1" t="s">
         <v>59</v>
       </c>
@@ -2326,142 +2401,145 @@
         <v>59</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD6" s="1" t="s">
+      <c r="AE6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AF6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AG6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AH6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AI6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AJ6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AL6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AN6" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AO6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP6" s="1" t="s">
+      <c r="AQ6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ6" s="1" t="s">
+      <c r="AR6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR6" s="1" t="s">
+      <c r="AS6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AT6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU6" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU6" s="1" t="s">
+      <c r="AV6" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AV6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AW6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX6" s="1" t="s">
+      <c r="AY6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AY6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA6" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BA6" s="1" t="s">
+      <c r="BB6" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BB6" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G7" s="1" t="s">
         <v>59</v>
       </c>
@@ -2469,56 +2547,56 @@
         <v>59</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z7" s="1" t="s">
         <v>59</v>
       </c>
@@ -2526,32 +2604,32 @@
         <v>59</v>
       </c>
       <c r="AB7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC7" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AC7" s="1" t="s">
+      <c r="AD7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AF7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AG7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AI7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AK7" s="1" t="s">
         <v>59</v>
       </c>
@@ -2559,76 +2637,79 @@
         <v>59</v>
       </c>
       <c r="AM7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP7" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AP7" s="1" t="s">
+      <c r="AQ7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ7" s="1" t="s">
+      <c r="AR7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR7" s="1" t="s">
+      <c r="AS7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS7" s="1" t="s">
+      <c r="AT7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AT7" s="1" t="s">
+      <c r="AU7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU7" s="1" t="s">
+      <c r="AV7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AV7" s="1" t="s">
+      <c r="AW7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AW7" s="1" t="s">
+      <c r="AX7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX7" s="1" t="s">
+      <c r="AY7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AY7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA7" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BA7" s="1" t="s">
+      <c r="BB7" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="BB7" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD7" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,11 +2726,11 @@
         <v>59</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="N8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2660,23 +2741,23 @@
         <v>59</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2687,59 +2768,59 @@
         <v>59</v>
       </c>
       <c r="Z8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AC8" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD8" s="1" t="s">
+      <c r="AE8" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AF8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG8" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AH8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI8" s="1" t="s">
+      <c r="AJ8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AK8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL8" s="1" t="s">
+      <c r="AM8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO8" s="1" t="s">
+      <c r="AP8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP8" s="1" t="s">
+      <c r="AQ8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR8" s="1" t="s">
         <v>59</v>
       </c>
@@ -2747,148 +2828,151 @@
         <v>59</v>
       </c>
       <c r="AT8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU8" s="1" t="s">
+      <c r="AV8" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AV8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AW8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX8" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AY8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA8" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BA8" s="1" t="s">
+      <c r="BB8" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="BB8" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="N9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="X9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="Z9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AE9" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG9" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AH9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI9" s="1" t="s">
+      <c r="AJ9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ9" s="1" t="s">
+      <c r="AK9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AL9" s="1" t="s">
         <v>59</v>
       </c>
@@ -2896,73 +2980,76 @@
         <v>59</v>
       </c>
       <c r="AN9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO9" s="1" t="s">
+      <c r="AP9" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AP9" s="1" t="s">
+      <c r="AQ9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ9" s="1" t="s">
+      <c r="AR9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT9" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AT9" s="1" t="s">
+      <c r="AU9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU9" s="1" t="s">
+      <c r="AV9" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AV9" s="1" t="s">
+      <c r="AW9" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AW9" s="1" t="s">
+      <c r="AX9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX9" s="1" t="s">
+      <c r="AY9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AY9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BA9" s="1" t="s">
+      <c r="BB9" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BB9" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD9" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G10" s="1" t="s">
         <v>59</v>
       </c>
@@ -2973,47 +3060,47 @@
         <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="X10" s="1" t="s">
         <v>59</v>
       </c>
@@ -3030,130 +3117,133 @@
         <v>59</v>
       </c>
       <c r="AC10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD10" s="1" t="s">
+      <c r="AE10" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="AE10" s="1" t="s">
+      <c r="AF10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF10" s="1" t="s">
+      <c r="AG10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI10" s="1" t="s">
+      <c r="AJ10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AK10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL10" s="1" t="s">
+      <c r="AM10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AN10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN10" s="1" t="s">
+      <c r="AO10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO10" s="1" t="s">
+      <c r="AP10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP10" s="1" t="s">
+      <c r="AQ10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ10" s="1" t="s">
+      <c r="AR10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR10" s="1" t="s">
+      <c r="AS10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS10" s="1" t="s">
+      <c r="AT10" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="AT10" s="1" t="s">
+      <c r="AU10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU10" s="1" t="s">
+      <c r="AV10" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="AV10" s="1" t="s">
+      <c r="AW10" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="AW10" s="1" t="s">
+      <c r="AX10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX10" s="1" t="s">
+      <c r="AY10" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="AY10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BA10" s="1" t="s">
+      <c r="BB10" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BB10" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD10" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="O11" s="1" t="s">
         <v>59</v>
       </c>
@@ -3161,11 +3251,11 @@
         <v>59</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="S11" s="1" t="s">
         <v>59</v>
       </c>
@@ -3173,133 +3263,136 @@
         <v>59</v>
       </c>
       <c r="U11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Y11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AE11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AF11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AG11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI11" s="1" t="s">
+      <c r="AJ11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ11" s="1" t="s">
+      <c r="AK11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK11" s="1" t="s">
+      <c r="AL11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL11" s="1" t="s">
+      <c r="AM11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AN11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN11" s="1" t="s">
+      <c r="AO11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO11" s="1" t="s">
+      <c r="AP11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP11" s="1" t="s">
+      <c r="AQ11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ11" s="1" t="s">
+      <c r="AR11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AT11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU11" s="1" t="s">
+      <c r="AV11" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AV11" s="1" t="s">
+      <c r="AW11" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AW11" s="1" t="s">
+      <c r="AX11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX11" s="1" t="s">
+      <c r="AY11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AY11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BA11" s="1" t="s">
+      <c r="BB11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BB11" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD11" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H12" s="1" t="s">
         <v>59</v>
       </c>
@@ -3313,14 +3406,14 @@
         <v>59</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="O12" s="1" t="s">
         <v>59</v>
       </c>
@@ -3328,199 +3421,202 @@
         <v>59</v>
       </c>
       <c r="Q12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="X12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB12" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD12" s="1" t="s">
+      <c r="AE12" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AF12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AG12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AH12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AI12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK12" s="1" t="s">
+      <c r="AL12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN12" s="1" t="s">
+      <c r="AO12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO12" s="1" t="s">
+      <c r="AP12" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP12" s="1" t="s">
+      <c r="AQ12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ12" s="1" t="s">
+      <c r="AR12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR12" s="1" t="s">
+      <c r="AS12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AT12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU12" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU12" s="1" t="s">
+      <c r="AV12" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AV12" s="1" t="s">
+      <c r="AW12" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AW12" s="1" t="s">
+      <c r="AX12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX12" s="1" t="s">
+      <c r="AY12" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AY12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA12" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="BA12" s="1" t="s">
+      <c r="BB12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BB12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD12" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="N13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="O13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="1" t="s">
+      <c r="V13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="X13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z13" s="1" t="s">
         <v>59</v>
       </c>
@@ -3531,50 +3627,50 @@
         <v>59</v>
       </c>
       <c r="AC13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD13" s="1" t="s">
+      <c r="AE13" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AE13" s="1" t="s">
+      <c r="AF13" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AH13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ13" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AK13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP13" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AP13" s="1" t="s">
+      <c r="AQ13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR13" s="1" t="s">
         <v>59</v>
       </c>
@@ -3582,55 +3678,58 @@
         <v>59</v>
       </c>
       <c r="AT13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU13" s="1" t="s">
+      <c r="AV13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AV13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AW13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="AY13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AY13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BA13" s="1" t="s">
+      <c r="BB13" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="BB13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD13" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3641,20 +3740,20 @@
         <v>59</v>
       </c>
       <c r="J14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="M14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="O14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3668,11 +3767,11 @@
         <v>59</v>
       </c>
       <c r="S14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3698,50 +3797,50 @@
         <v>59</v>
       </c>
       <c r="AC14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD14" s="1" t="s">
+      <c r="AE14" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AF14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AF14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AH14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI14" s="1" t="s">
+      <c r="AJ14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AK14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL14" s="1" t="s">
+      <c r="AM14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM14" s="1" t="s">
+      <c r="AN14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP14" s="1" t="s">
+      <c r="AQ14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR14" s="1" t="s">
         <v>59</v>
       </c>
@@ -3749,55 +3848,58 @@
         <v>59</v>
       </c>
       <c r="AT14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU14" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU14" s="1" t="s">
+      <c r="AV14" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AV14" s="1" t="s">
+      <c r="AW14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="AW14" s="1" t="s">
+      <c r="AX14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX14" s="1" t="s">
+      <c r="AY14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AY14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA14" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BA14" s="1" t="s">
+      <c r="BB14" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BB14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
@@ -3805,166 +3907,169 @@
         <v>59</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="M15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="V15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V15" s="1" t="s">
+      <c r="W15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="X15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X15" s="1" t="s">
+      <c r="Y15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="Z15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB15" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD15" s="1" t="s">
+      <c r="AE15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AF15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AG15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AH15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH15" s="1" t="s">
+      <c r="AI15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI15" s="1" t="s">
+      <c r="AJ15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ15" s="1" t="s">
+      <c r="AK15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK15" s="1" t="s">
+      <c r="AL15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AM15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM15" s="1" t="s">
+      <c r="AN15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN15" s="1" t="s">
+      <c r="AO15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO15" s="1" t="s">
+      <c r="AP15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR15" s="1" t="s">
+      <c r="AS15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS15" s="1" t="s">
+      <c r="AT15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AT15" s="1" t="s">
+      <c r="AU15" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU15" s="1" t="s">
+      <c r="AV15" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AV15" s="1" t="s">
+      <c r="AW15" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AW15" s="1" t="s">
+      <c r="AX15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX15" s="1" t="s">
+      <c r="AY15" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AY15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA15" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BA15" s="1" t="s">
+      <c r="BB15" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BB15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD15" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>59</v>
       </c>
@@ -3975,23 +4080,23 @@
         <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="M16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P16" s="1" t="s">
         <v>59</v>
       </c>
@@ -3999,29 +4104,29 @@
         <v>59</v>
       </c>
       <c r="R16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V16" s="1" t="s">
+      <c r="W16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="X16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z16" s="1" t="s">
         <v>59</v>
       </c>
@@ -4032,29 +4137,29 @@
         <v>59</v>
       </c>
       <c r="AC16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AE16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF16" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AG16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AI16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AK16" s="1" t="s">
         <v>59</v>
       </c>
@@ -4065,73 +4170,76 @@
         <v>59</v>
       </c>
       <c r="AN16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO16" s="1" t="s">
+      <c r="AP16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AT16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AV16" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AW16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX16" s="1" t="s">
+      <c r="AY16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="AY16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA16" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BA16" s="1" t="s">
+      <c r="BB16" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BB16" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD16" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G17" s="1" t="s">
         <v>59</v>
       </c>
@@ -4142,56 +4250,56 @@
         <v>59</v>
       </c>
       <c r="J17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="N17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="O17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V17" s="1" t="s">
+      <c r="W17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W17" s="1" t="s">
+      <c r="X17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X17" s="1" t="s">
+      <c r="Y17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="Z17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AA17" s="1" t="s">
         <v>59</v>
       </c>
@@ -4199,112 +4307,115 @@
         <v>59</v>
       </c>
       <c r="AC17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD17" s="1" t="s">
+      <c r="AE17" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="AE17" s="1" t="s">
+      <c r="AF17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AF17" s="1" t="s">
+      <c r="AG17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ17" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AK17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP17" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AP17" s="1" t="s">
+      <c r="AQ17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ17" s="1" t="s">
+      <c r="AR17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT17" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="AT17" s="1" t="s">
+      <c r="AU17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU17" s="1" t="s">
+      <c r="AV17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="AV17" s="1" t="s">
+      <c r="AW17" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="AW17" s="1" t="s">
+      <c r="AX17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX17" s="1" t="s">
+      <c r="AY17" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="AY17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA17" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BA17" s="1" t="s">
+      <c r="BB17" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BB17" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD17" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I18" s="1" t="s">
         <v>59</v>
       </c>
@@ -4312,26 +4423,26 @@
         <v>59</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="M18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="O18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="R18" s="1" t="s">
         <v>59</v>
       </c>
@@ -4342,23 +4453,23 @@
         <v>59</v>
       </c>
       <c r="U18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="X18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Y18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AA18" s="1" t="s">
         <v>59</v>
       </c>
@@ -4366,106 +4477,109 @@
         <v>59</v>
       </c>
       <c r="AC18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD18" s="1" t="s">
+      <c r="AE18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AF18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AG18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH18" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AI18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ18" s="1" t="s">
+      <c r="AK18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK18" s="1" t="s">
+      <c r="AL18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP18" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP18" s="1" t="s">
+      <c r="AQ18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ18" s="1" t="s">
+      <c r="AR18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR18" s="1" t="s">
+      <c r="AS18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS18" s="1" t="s">
+      <c r="AT18" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="AT18" s="1" t="s">
+      <c r="AU18" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU18" s="1" t="s">
+      <c r="AV18" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="AV18" s="1" t="s">
+      <c r="AW18" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="AW18" s="1" t="s">
+      <c r="AX18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX18" s="1" t="s">
+      <c r="AY18" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="AY18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA18" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="BA18" s="1" t="s">
+      <c r="BB18" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="BB18" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD18" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G19" s="1" t="s">
         <v>59</v>
       </c>
@@ -4479,20 +4593,20 @@
         <v>59</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="N19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P19" s="1" t="s">
         <v>59</v>
       </c>
@@ -4500,50 +4614,50 @@
         <v>59</v>
       </c>
       <c r="R19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X19" s="1" t="s">
+      <c r="Y19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD19" s="1" t="s">
+      <c r="AE19" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="AE19" s="1" t="s">
+      <c r="AF19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AF19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG19" s="1" t="s">
         <v>59</v>
       </c>
@@ -4551,145 +4665,148 @@
         <v>59</v>
       </c>
       <c r="AI19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ19" s="1" t="s">
+      <c r="AK19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK19" s="1" t="s">
+      <c r="AL19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP19" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS19" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AT19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU19" s="1" t="s">
+      <c r="AV19" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="AV19" s="1" t="s">
+      <c r="AW19" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="AW19" s="1" t="s">
+      <c r="AX19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX19" s="1" t="s">
+      <c r="AY19" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="AY19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA19" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="BA19" s="1" t="s">
+      <c r="BB19" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BB19" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>238</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V20" s="1" t="s">
+      <c r="W20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W20" s="1" t="s">
+      <c r="X20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X20" s="1" t="s">
+      <c r="Y20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z20" s="1" t="s">
         <v>59</v>
       </c>
@@ -4700,50 +4817,50 @@
         <v>59</v>
       </c>
       <c r="AC20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD20" s="1" t="s">
+      <c r="AE20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="AE20" s="1" t="s">
+      <c r="AF20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF20" s="1" t="s">
+      <c r="AG20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AH20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH20" s="1" t="s">
+      <c r="AI20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK20" s="1" t="s">
+      <c r="AL20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP20" s="1" t="s">
+      <c r="AQ20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR20" s="1" t="s">
         <v>59</v>
       </c>
@@ -4751,58 +4868,61 @@
         <v>59</v>
       </c>
       <c r="AT20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU20" s="1" t="s">
+      <c r="AV20" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="AV20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AW20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX20" s="1" t="s">
+      <c r="AY20" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="AY20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA20" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="BA20" s="1" t="s">
+      <c r="BB20" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="BB20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD20" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>245</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H21" s="1" t="s">
         <v>59</v>
       </c>
@@ -4810,163 +4930,166 @@
         <v>59</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V21" s="1" t="s">
+      <c r="W21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="X21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X21" s="1" t="s">
+      <c r="Y21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB21" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD21" s="1" t="s">
+      <c r="AE21" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="AE21" s="1" t="s">
+      <c r="AF21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AG21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG21" s="1" t="s">
+      <c r="AH21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AI21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK21" s="1" t="s">
+      <c r="AL21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AP21" s="1" t="s">
+      <c r="AQ21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ21" s="1" t="s">
+      <c r="AR21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT21" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AT21" s="1" t="s">
+      <c r="AU21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU21" s="1" t="s">
+      <c r="AV21" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AV21" s="1" t="s">
+      <c r="AW21" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="AW21" s="1" t="s">
+      <c r="AX21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX21" s="1" t="s">
+      <c r="AY21" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="AY21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA21" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="BA21" s="1" t="s">
+      <c r="BB21" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="BB21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD21" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>59</v>
       </c>
@@ -4974,35 +5097,35 @@
         <v>59</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="S22" s="1" t="s">
         <v>59</v>
       </c>
@@ -5019,121 +5142,124 @@
         <v>59</v>
       </c>
       <c r="X22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AD22" s="1" t="s">
+      <c r="AE22" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="AE22" s="1" t="s">
+      <c r="AF22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AG22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AI22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AK22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM22" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AN22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO22" s="1" t="s">
+      <c r="AP22" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP22" s="1" t="s">
+      <c r="AQ22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ22" s="1" t="s">
+      <c r="AR22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT22" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="AT22" s="1" t="s">
+      <c r="AU22" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU22" s="1" t="s">
+      <c r="AV22" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="AV22" s="1" t="s">
+      <c r="AW22" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="AW22" s="1" t="s">
+      <c r="AX22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX22" s="1" t="s">
+      <c r="AY22" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AY22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA22" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="BA22" s="1" t="s">
+      <c r="BB22" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="BB22" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD22" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>266</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G23" s="1" t="s">
         <v>59</v>
       </c>
@@ -5144,53 +5270,53 @@
         <v>59</v>
       </c>
       <c r="J23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="V23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="W23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W23" s="1" t="s">
+      <c r="X23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z23" s="1" t="s">
         <v>59</v>
       </c>
@@ -5201,106 +5327,109 @@
         <v>59</v>
       </c>
       <c r="AC23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD23" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD23" s="1" t="s">
+      <c r="AE23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AE23" s="1" t="s">
+      <c r="AF23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AG23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AH23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH23" s="1" t="s">
+      <c r="AI23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AL23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM23" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AN23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO23" s="1" t="s">
+      <c r="AP23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP23" s="1" t="s">
+      <c r="AQ23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ23" s="1" t="s">
+      <c r="AR23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS23" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AT23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU23" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU23" s="1" t="s">
+      <c r="AV23" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AV23" s="1" t="s">
+      <c r="AW23" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AW23" s="1" t="s">
+      <c r="AX23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX23" s="1" t="s">
+      <c r="AY23" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AY23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA23" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="BA23" s="1" t="s">
+      <c r="BB23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BB23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD23" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G24" s="1" t="s">
         <v>59</v>
       </c>
@@ -5308,169 +5437,172 @@
         <v>59</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P24" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Q24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T24" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="W24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="X24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X24" s="1" t="s">
+      <c r="Y24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB24" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD24" s="1" t="s">
+      <c r="AE24" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AF24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF24" s="1" t="s">
+      <c r="AG24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK24" s="1" t="s">
+      <c r="AL24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP24" s="1" t="s">
+      <c r="AQ24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ24" s="1" t="s">
+      <c r="AR24" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT24" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="AT24" s="1" t="s">
+      <c r="AU24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU24" s="1" t="s">
+      <c r="AV24" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AV24" s="1" t="s">
+      <c r="AW24" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AW24" s="1" t="s">
+      <c r="AX24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX24" s="1" t="s">
+      <c r="AY24" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AY24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA24" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="BA24" s="1" t="s">
+      <c r="BB24" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="BB24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD24" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H25" s="1" t="s">
         <v>59</v>
       </c>
@@ -5478,163 +5610,166 @@
         <v>59</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="O25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="Q25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="R25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="W25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W25" s="1" t="s">
+      <c r="X25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Y25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Z25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC25" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AC25" s="1" t="s">
+      <c r="AD25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD25" s="1" t="s">
+      <c r="AE25" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AE25" s="1" t="s">
+      <c r="AF25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AF25" s="1" t="s">
+      <c r="AG25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AK25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AM25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP25" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="AP25" s="1" t="s">
+      <c r="AQ25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR25" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AS25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT25" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AT25" s="1" t="s">
+      <c r="AU25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU25" s="1" t="s">
+      <c r="AV25" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AV25" s="1" t="s">
+      <c r="AW25" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AW25" s="1" t="s">
+      <c r="AX25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX25" s="1" t="s">
+      <c r="AY25" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AY25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA25" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="BA25" s="1" t="s">
+      <c r="BB25" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="BB25" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD25" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G26" s="1" t="s">
         <v>59</v>
       </c>
@@ -5642,20 +5777,20 @@
         <v>59</v>
       </c>
       <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="L26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="N26" s="1" t="s">
         <v>59</v>
       </c>
@@ -5666,145 +5801,148 @@
         <v>59</v>
       </c>
       <c r="Q26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="S26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V26" s="1" t="s">
+      <c r="W26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W26" s="1" t="s">
+      <c r="X26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Y26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="Z26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB26" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD26" s="1" t="s">
+      <c r="AE26" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AE26" s="1" t="s">
+      <c r="AF26" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF26" s="1" t="s">
+      <c r="AG26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AH26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AJ26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AL26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM26" s="1" t="s">
+      <c r="AN26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AO26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AP26" s="1" t="s">
+      <c r="AQ26" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ26" s="1" t="s">
+      <c r="AR26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR26" s="1" t="s">
+      <c r="AS26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AT26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU26" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU26" s="1" t="s">
+      <c r="AV26" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AV26" s="1" t="s">
+      <c r="AW26" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW26" s="1" t="s">
+      <c r="AX26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX26" s="1" t="s">
+      <c r="AY26" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AY26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA26" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BA26" s="1" t="s">
+      <c r="BB26" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BB26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD26" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H27" s="1" t="s">
         <v>59</v>
       </c>
@@ -5812,44 +5950,44 @@
         <v>59</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="Q27" s="1" t="s">
+      <c r="R27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T27" s="1" t="s">
         <v>59</v>
       </c>
       <c r="U27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="W27" s="1" t="s">
         <v>59</v>
       </c>
@@ -5857,29 +5995,29 @@
         <v>59</v>
       </c>
       <c r="Y27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA27" s="1" t="s">
+      <c r="AB27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB27" s="1" t="s">
+      <c r="AC27" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="AC27" s="1" t="s">
+      <c r="AD27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD27" s="1" t="s">
+      <c r="AE27" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="AE27" s="1" t="s">
+      <c r="AF27" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AF27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG27" s="1" t="s">
         <v>59</v>
       </c>
@@ -5905,109 +6043,112 @@
         <v>59</v>
       </c>
       <c r="AO27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP27" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AP27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AQ27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR27" s="1" t="s">
+      <c r="AS27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS27" s="1" t="s">
+      <c r="AT27" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="AT27" s="1" t="s">
+      <c r="AU27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU27" s="1" t="s">
+      <c r="AV27" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="AV27" s="1" t="s">
+      <c r="AW27" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="AW27" s="1" t="s">
+      <c r="AX27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX27" s="1" t="s">
+      <c r="AY27" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="AY27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA27" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BA27" s="1" t="s">
+      <c r="BB27" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BB27" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD27" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="O28" s="1" t="s">
         <v>59</v>
       </c>
       <c r="P28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q28" s="1" t="s">
+      <c r="R28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T28" s="1" t="s">
         <v>59</v>
       </c>
@@ -6018,35 +6159,35 @@
         <v>59</v>
       </c>
       <c r="W28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X28" s="1" t="s">
+      <c r="Y28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AB28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC28" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="AC28" s="1" t="s">
+      <c r="AD28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD28" s="1" t="s">
+      <c r="AE28" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AE28" s="1" t="s">
+      <c r="AF28" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="AF28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG28" s="1" t="s">
         <v>59</v>
       </c>
@@ -6072,73 +6213,76 @@
         <v>59</v>
       </c>
       <c r="AO28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP28" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AP28" s="1" t="s">
+      <c r="AQ28" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ28" s="1" t="s">
+      <c r="AR28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AT28" s="1" t="s">
+      <c r="AU28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU28" s="1" t="s">
+      <c r="AV28" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="AV28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AW28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX28" s="1" t="s">
+      <c r="AY28" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="AY28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA28" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BA28" s="1" t="s">
+      <c r="BB28" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="BB28" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD28" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>59</v>
       </c>
@@ -6146,23 +6290,23 @@
         <v>59</v>
       </c>
       <c r="J29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="P29" s="1" t="s">
         <v>59</v>
       </c>
@@ -6170,32 +6314,32 @@
         <v>59</v>
       </c>
       <c r="R29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="T29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U29" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="V29" s="1" t="s">
         <v>59</v>
       </c>
       <c r="W29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="X29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X29" s="1" t="s">
+      <c r="Y29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="Z29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AA29" s="1" t="s">
         <v>59</v>
       </c>
@@ -6203,17 +6347,17 @@
         <v>59</v>
       </c>
       <c r="AC29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD29" s="1" t="s">
+      <c r="AE29" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="AE29" s="1" t="s">
+      <c r="AF29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG29" s="1" t="s">
         <v>59</v>
       </c>
@@ -6239,14 +6383,14 @@
         <v>59</v>
       </c>
       <c r="AO29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP29" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AP29" s="1" t="s">
+      <c r="AQ29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AR29" s="1" t="s">
         <v>59</v>
       </c>
@@ -6254,55 +6398,58 @@
         <v>59</v>
       </c>
       <c r="AT29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AU29" s="1" t="s">
+      <c r="AV29" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="AV29" s="1" t="s">
+      <c r="AW29" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="AW29" s="1" t="s">
+      <c r="AX29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX29" s="1" t="s">
+      <c r="AY29" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="AY29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA29" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="BA29" s="1" t="s">
+      <c r="BB29" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="BB29" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD29" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G30" s="1" t="s">
         <v>59</v>
       </c>
@@ -6310,56 +6457,56 @@
         <v>59</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="L30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="U30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="V30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W30" s="1" t="s">
+      <c r="X30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X30" s="1" t="s">
+      <c r="Y30" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Z30" s="1" t="s">
         <v>59</v>
       </c>
@@ -6370,17 +6517,17 @@
         <v>59</v>
       </c>
       <c r="AC30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD30" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AD30" s="1" t="s">
+      <c r="AE30" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="AE30" s="1" t="s">
+      <c r="AF30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="AF30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AG30" s="1" t="s">
         <v>59</v>
       </c>
@@ -6406,48 +6553,51 @@
         <v>59</v>
       </c>
       <c r="AO30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AP30" s="1" t="s">
+      <c r="AQ30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ30" s="1" t="s">
+      <c r="AR30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AS30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT30" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="AT30" s="1" t="s">
+      <c r="AU30" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AU30" s="1" t="s">
+      <c r="AV30" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AV30" s="1" t="s">
+      <c r="AW30" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="AW30" s="1" t="s">
+      <c r="AX30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AX30" s="1" t="s">
+      <c r="AY30" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="AY30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AZ30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA30" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="BA30" s="1" t="s">
+      <c r="BB30" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="BB30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="BC30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BD30" s="1" t="s">
         <v>72</v>
       </c>
     </row>
